--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/050_メッセージ設計/メッセージ設計書(画面)_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE5274-D5F2-4E1F-B1FE-A10245C88029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96359578-C07E-47C4-8F67-01ACA9DBCC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc46209822" localSheetId="3">ja!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$AK$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$33</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>PJ名</t>
   </si>
@@ -486,13 +486,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>第１．２版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Spring Frameworkのメッセージ管理方式をベースに見直し</t>
     <rPh sb="22" eb="24">
       <t>カンリ</t>
@@ -502,6 +495,107 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>errors.projectDownload.illegalState</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>不正な状態です。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>errors.projectDownload.illegalStateを追加</t>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>errors.projectUpload.noFile</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>errors.projectUpload.emptyFile</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>errors.projectUpload.fileExceededMaxSize</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイルが指定されていません。</t>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイルが空です。</t>
+    <rPh sb="5" eb="6">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイルが500KBを超えています。</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>errors.projectUoloadから始まるメッセージを追加</t>
+    <rPh sb="22" eb="23">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>errors.projectUpload.tempFileNotFound</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>プロジェクト一括登録の要求に失敗しました。ファイルアップロードからやり直して下さい。</t>
+    <rPh sb="6" eb="8">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>クダ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -888,7 +982,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1282,9 +1376,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1398,9 +1501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2236,7 +2336,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="J23" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2250,7 +2350,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="73">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44697</v>
+        <v>44889</v>
       </c>
       <c r="J25" s="73"/>
       <c r="K25" s="73"/>
@@ -2952,7 +3052,7 @@
       <c r="AF2" s="89"/>
       <c r="AG2" s="74">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44697</v>
+        <v>44889</v>
       </c>
       <c r="AH2" s="75"/>
       <c r="AI2" s="76"/>
@@ -3189,7 +3289,7 @@
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="143" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="119"/>
@@ -3212,8 +3312,8 @@
       <c r="N10" s="121"/>
       <c r="O10" s="121"/>
       <c r="P10" s="122"/>
-      <c r="Q10" s="180" t="s">
-        <v>98</v>
+      <c r="Q10" s="144" t="s">
+        <v>97</v>
       </c>
       <c r="R10" s="124"/>
       <c r="S10" s="124"/>
@@ -3237,23 +3337,35 @@
       <c r="AI10" s="122"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="141"/>
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="141" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="119"/>
-      <c r="D11" s="114"/>
+      <c r="D11" s="114">
+        <v>44872</v>
+      </c>
       <c r="E11" s="115"/>
       <c r="F11" s="116"/>
-      <c r="G11" s="141"/>
+      <c r="G11" s="117" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="118"/>
       <c r="I11" s="119"/>
-      <c r="J11" s="126"/>
+      <c r="J11" s="120" t="s">
+        <v>93</v>
+      </c>
       <c r="K11" s="121"/>
       <c r="L11" s="121"/>
       <c r="M11" s="121"/>
       <c r="N11" s="121"/>
       <c r="O11" s="121"/>
       <c r="P11" s="122"/>
-      <c r="Q11" s="123"/>
+      <c r="Q11" s="142" t="s">
+        <v>101</v>
+      </c>
       <c r="R11" s="124"/>
       <c r="S11" s="124"/>
       <c r="T11" s="124"/>
@@ -3268,29 +3380,43 @@
       <c r="AC11" s="124"/>
       <c r="AD11" s="124"/>
       <c r="AE11" s="125"/>
-      <c r="AF11" s="126"/>
+      <c r="AF11" s="126" t="s">
+        <v>96</v>
+      </c>
       <c r="AG11" s="121"/>
       <c r="AH11" s="121"/>
       <c r="AI11" s="122"/>
     </row>
     <row r="12" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="141"/>
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="141" t="s">
+        <v>100</v>
+      </c>
       <c r="C12" s="119"/>
-      <c r="D12" s="114"/>
+      <c r="D12" s="114">
+        <v>44889</v>
+      </c>
       <c r="E12" s="115"/>
       <c r="F12" s="116"/>
-      <c r="G12" s="141"/>
+      <c r="G12" s="117" t="s">
+        <v>4</v>
+      </c>
       <c r="H12" s="118"/>
       <c r="I12" s="119"/>
-      <c r="J12" s="126"/>
+      <c r="J12" s="120" t="s">
+        <v>93</v>
+      </c>
       <c r="K12" s="121"/>
       <c r="L12" s="121"/>
       <c r="M12" s="121"/>
       <c r="N12" s="121"/>
       <c r="O12" s="121"/>
       <c r="P12" s="122"/>
-      <c r="Q12" s="123"/>
+      <c r="Q12" s="142" t="s">
+        <v>109</v>
+      </c>
       <c r="R12" s="124"/>
       <c r="S12" s="124"/>
       <c r="T12" s="124"/>
@@ -3305,19 +3431,21 @@
       <c r="AC12" s="124"/>
       <c r="AD12" s="124"/>
       <c r="AE12" s="125"/>
-      <c r="AF12" s="126"/>
+      <c r="AF12" s="126" t="s">
+        <v>96</v>
+      </c>
       <c r="AG12" s="121"/>
       <c r="AH12" s="121"/>
       <c r="AI12" s="122"/>
     </row>
     <row r="13" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="141"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="119"/>
       <c r="D13" s="114"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116"/>
-      <c r="G13" s="141"/>
+      <c r="G13" s="143"/>
       <c r="H13" s="118"/>
       <c r="I13" s="119"/>
       <c r="J13" s="126"/>
@@ -3349,12 +3477,12 @@
     </row>
     <row r="14" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="141"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="119"/>
       <c r="D14" s="114"/>
       <c r="E14" s="115"/>
       <c r="F14" s="116"/>
-      <c r="G14" s="141"/>
+      <c r="G14" s="143"/>
       <c r="H14" s="118"/>
       <c r="I14" s="119"/>
       <c r="J14" s="126"/>
@@ -3386,12 +3514,12 @@
     </row>
     <row r="15" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="141"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="119"/>
       <c r="D15" s="114"/>
       <c r="E15" s="115"/>
       <c r="F15" s="116"/>
-      <c r="G15" s="141"/>
+      <c r="G15" s="143"/>
       <c r="H15" s="118"/>
       <c r="I15" s="119"/>
       <c r="J15" s="126"/>
@@ -3423,12 +3551,12 @@
     </row>
     <row r="16" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="141"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="119"/>
       <c r="D16" s="114"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116"/>
-      <c r="G16" s="141"/>
+      <c r="G16" s="143"/>
       <c r="H16" s="118"/>
       <c r="I16" s="119"/>
       <c r="J16" s="126"/>
@@ -3460,12 +3588,12 @@
     </row>
     <row r="17" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="141"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="119"/>
       <c r="D17" s="114"/>
       <c r="E17" s="115"/>
       <c r="F17" s="116"/>
-      <c r="G17" s="141"/>
+      <c r="G17" s="143"/>
       <c r="H17" s="118"/>
       <c r="I17" s="119"/>
       <c r="J17" s="126"/>
@@ -3497,12 +3625,12 @@
     </row>
     <row r="18" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="141"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="119"/>
       <c r="D18" s="114"/>
       <c r="E18" s="115"/>
       <c r="F18" s="116"/>
-      <c r="G18" s="141"/>
+      <c r="G18" s="143"/>
       <c r="H18" s="118"/>
       <c r="I18" s="119"/>
       <c r="J18" s="126"/>
@@ -3534,12 +3662,12 @@
     </row>
     <row r="19" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="141"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="119"/>
       <c r="D19" s="114"/>
       <c r="E19" s="115"/>
       <c r="F19" s="116"/>
-      <c r="G19" s="141"/>
+      <c r="G19" s="143"/>
       <c r="H19" s="118"/>
       <c r="I19" s="119"/>
       <c r="J19" s="126"/>
@@ -3571,12 +3699,12 @@
     </row>
     <row r="20" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="141"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="119"/>
       <c r="D20" s="114"/>
       <c r="E20" s="115"/>
       <c r="F20" s="116"/>
-      <c r="G20" s="141"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="118"/>
       <c r="I20" s="119"/>
       <c r="J20" s="126"/>
@@ -3608,12 +3736,12 @@
     </row>
     <row r="21" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="141"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="119"/>
       <c r="D21" s="114"/>
       <c r="E21" s="115"/>
       <c r="F21" s="116"/>
-      <c r="G21" s="141"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="118"/>
       <c r="I21" s="119"/>
       <c r="J21" s="126"/>
@@ -3645,12 +3773,12 @@
     </row>
     <row r="22" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="141"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="119"/>
       <c r="D22" s="114"/>
       <c r="E22" s="115"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="141"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="118"/>
       <c r="I22" s="119"/>
       <c r="J22" s="126"/>
@@ -3682,12 +3810,12 @@
     </row>
     <row r="23" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="141"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="119"/>
       <c r="D23" s="114"/>
       <c r="E23" s="115"/>
       <c r="F23" s="116"/>
-      <c r="G23" s="141"/>
+      <c r="G23" s="143"/>
       <c r="H23" s="118"/>
       <c r="I23" s="119"/>
       <c r="J23" s="126"/>
@@ -3719,12 +3847,12 @@
     </row>
     <row r="24" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="141"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="119"/>
       <c r="D24" s="114"/>
       <c r="E24" s="115"/>
       <c r="F24" s="116"/>
-      <c r="G24" s="141"/>
+      <c r="G24" s="143"/>
       <c r="H24" s="118"/>
       <c r="I24" s="119"/>
       <c r="J24" s="126"/>
@@ -3756,12 +3884,12 @@
     </row>
     <row r="25" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="141"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="119"/>
       <c r="D25" s="114"/>
       <c r="E25" s="115"/>
       <c r="F25" s="116"/>
-      <c r="G25" s="141"/>
+      <c r="G25" s="143"/>
       <c r="H25" s="118"/>
       <c r="I25" s="119"/>
       <c r="J25" s="126"/>
@@ -3793,12 +3921,12 @@
     </row>
     <row r="26" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="141"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="119"/>
       <c r="D26" s="114"/>
       <c r="E26" s="115"/>
       <c r="F26" s="116"/>
-      <c r="G26" s="141"/>
+      <c r="G26" s="143"/>
       <c r="H26" s="118"/>
       <c r="I26" s="119"/>
       <c r="J26" s="126"/>
@@ -3830,12 +3958,12 @@
     </row>
     <row r="27" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
-      <c r="B27" s="141"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="119"/>
       <c r="D27" s="114"/>
       <c r="E27" s="115"/>
       <c r="F27" s="116"/>
-      <c r="G27" s="141"/>
+      <c r="G27" s="143"/>
       <c r="H27" s="118"/>
       <c r="I27" s="119"/>
       <c r="J27" s="126"/>
@@ -3867,12 +3995,12 @@
     </row>
     <row r="28" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
-      <c r="B28" s="141"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="119"/>
       <c r="D28" s="114"/>
       <c r="E28" s="115"/>
       <c r="F28" s="116"/>
-      <c r="G28" s="141"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="118"/>
       <c r="I28" s="119"/>
       <c r="J28" s="126"/>
@@ -3904,12 +4032,12 @@
     </row>
     <row r="29" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
-      <c r="B29" s="141"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="119"/>
       <c r="D29" s="114"/>
       <c r="E29" s="115"/>
       <c r="F29" s="116"/>
-      <c r="G29" s="141"/>
+      <c r="G29" s="143"/>
       <c r="H29" s="118"/>
       <c r="I29" s="119"/>
       <c r="J29" s="126"/>
@@ -3941,12 +4069,12 @@
     </row>
     <row r="30" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="141"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="119"/>
       <c r="D30" s="114"/>
       <c r="E30" s="115"/>
       <c r="F30" s="116"/>
-      <c r="G30" s="141"/>
+      <c r="G30" s="143"/>
       <c r="H30" s="118"/>
       <c r="I30" s="119"/>
       <c r="J30" s="126"/>
@@ -3978,12 +4106,12 @@
     </row>
     <row r="31" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
-      <c r="B31" s="141"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="119"/>
       <c r="D31" s="114"/>
       <c r="E31" s="115"/>
       <c r="F31" s="116"/>
-      <c r="G31" s="141"/>
+      <c r="G31" s="143"/>
       <c r="H31" s="118"/>
       <c r="I31" s="119"/>
       <c r="J31" s="126"/>
@@ -4015,16 +4143,16 @@
     </row>
     <row r="32" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
-      <c r="B32" s="141"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="119"/>
       <c r="D32" s="114"/>
       <c r="E32" s="115"/>
       <c r="F32" s="116"/>
-      <c r="G32" s="141"/>
+      <c r="G32" s="143"/>
       <c r="H32" s="118"/>
       <c r="I32" s="119"/>
       <c r="J32" s="126"/>
-      <c r="K32" s="142"/>
+      <c r="K32" s="145"/>
       <c r="L32" s="121"/>
       <c r="M32" s="121"/>
       <c r="N32" s="121"/>
@@ -4052,12 +4180,12 @@
     </row>
     <row r="33" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="141"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="119"/>
       <c r="D33" s="114"/>
       <c r="E33" s="115"/>
       <c r="F33" s="116"/>
-      <c r="G33" s="141"/>
+      <c r="G33" s="143"/>
       <c r="H33" s="118"/>
       <c r="I33" s="119"/>
       <c r="J33" s="126"/>
@@ -4474,12 +4602,12 @@
       <c r="AD1" s="109"/>
       <c r="AE1" s="109"/>
       <c r="AF1" s="110"/>
-      <c r="AG1" s="143">
+      <c r="AG1" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AH1" s="144"/>
-      <c r="AI1" s="145"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
@@ -4527,12 +4655,12 @@
       <c r="AD2" s="109"/>
       <c r="AE2" s="109"/>
       <c r="AF2" s="110"/>
-      <c r="AG2" s="143">
+      <c r="AG2" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44697</v>
-      </c>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="145"/>
+        <v>44889</v>
+      </c>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="148"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -4578,12 +4706,12 @@
       <c r="AD3" s="109"/>
       <c r="AE3" s="109"/>
       <c r="AF3" s="110"/>
-      <c r="AG3" s="143" t="str">
+      <c r="AG3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="145"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5781,7 +5909,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5814,23 +5942,23 @@
       <c r="N1" s="85"/>
       <c r="O1" s="85"/>
       <c r="P1" s="86"/>
-      <c r="Q1" s="152" t="s">
+      <c r="Q1" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="161" t="str">
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メッセージ設計書</v>
       </c>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="163"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="166"/>
       <c r="AC1" s="81" t="s">
         <v>3</v>
       </c>
@@ -5842,12 +5970,12 @@
       <c r="AF1" s="109"/>
       <c r="AG1" s="109"/>
       <c r="AH1" s="110"/>
-      <c r="AI1" s="143">
+      <c r="AI1" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43601</v>
       </c>
-      <c r="AJ1" s="144"/>
-      <c r="AK1" s="145"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="148"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="2"/>
@@ -5874,18 +6002,18 @@
       <c r="N2" s="85"/>
       <c r="O2" s="85"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="166"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="169"/>
       <c r="AC2" s="81" t="s">
         <v>4</v>
       </c>
@@ -5897,12 +6025,12 @@
       <c r="AF2" s="109"/>
       <c r="AG2" s="109"/>
       <c r="AH2" s="110"/>
-      <c r="AI2" s="143">
+      <c r="AI2" s="146">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44697</v>
-      </c>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="145"/>
+        <v>44889</v>
+      </c>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="148"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
@@ -5929,18 +6057,18 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="86"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="169"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="172"/>
       <c r="AC3" s="81"/>
       <c r="AD3" s="83"/>
       <c r="AE3" s="108" t="str">
@@ -5950,12 +6078,12 @@
       <c r="AF3" s="109"/>
       <c r="AG3" s="109"/>
       <c r="AH3" s="110"/>
-      <c r="AI3" s="143" t="str">
+      <c r="AI3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="145"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="148"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
@@ -5973,82 +6101,82 @@
       <c r="C7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="149" t="s">
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="173" t="s">
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="153"/>
+      <c r="X7" s="153"/>
+      <c r="Y7" s="153"/>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="153"/>
+      <c r="AB7" s="153"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="154"/>
+      <c r="AF7" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="151"/>
+      <c r="AG7" s="153"/>
+      <c r="AH7" s="153"/>
+      <c r="AI7" s="153"/>
+      <c r="AJ7" s="154"/>
     </row>
     <row r="8" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="48">
         <v>1</v>
       </c>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="146" t="s">
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="148"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="151"/>
       <c r="AF8" s="126"/>
       <c r="AG8" s="121"/>
       <c r="AH8" s="121"/>
@@ -6060,38 +6188,38 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="146" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="148"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="150"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="151"/>
       <c r="AF9" s="126"/>
       <c r="AG9" s="121"/>
       <c r="AH9" s="121"/>
@@ -6100,337 +6228,342 @@
     </row>
     <row r="10" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="48">
-        <f t="shared" ref="C10:C12" si="0">C9+1</f>
+        <f>C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="146" t="s">
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="148"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="151"/>
       <c r="AF10" s="126"/>
       <c r="AG10" s="121"/>
       <c r="AH10" s="121"/>
       <c r="AI10" s="121"/>
       <c r="AJ10" s="122"/>
     </row>
-    <row r="11" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C11:C19" si="0">C10+1</f>
         <v>4</v>
       </c>
-      <c r="D11" s="146" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="170" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="174"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="174"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="174"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="175"/>
+      <c r="D11" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
+      <c r="AB11" s="150"/>
+      <c r="AC11" s="150"/>
+      <c r="AD11" s="150"/>
+      <c r="AE11" s="151"/>
       <c r="AF11" s="126"/>
       <c r="AG11" s="121"/>
       <c r="AH11" s="121"/>
       <c r="AI11" s="121"/>
       <c r="AJ11" s="122"/>
     </row>
-    <row r="12" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
+      <c r="D12" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="149" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="150"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="151"/>
       <c r="AF12" s="126"/>
       <c r="AG12" s="121"/>
       <c r="AH12" s="121"/>
       <c r="AI12" s="121"/>
       <c r="AJ12" s="122"/>
     </row>
-    <row r="13" spans="1:40" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="48">
-        <f>C11+1</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="170" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="170" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="175"/>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
+      <c r="AB13" s="150"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="150"/>
+      <c r="AE13" s="151"/>
       <c r="AF13" s="126"/>
       <c r="AG13" s="121"/>
       <c r="AH13" s="121"/>
       <c r="AI13" s="121"/>
       <c r="AJ13" s="122"/>
     </row>
-    <row r="14" spans="1:40" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="48">
-        <f>C12+1</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="170" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="170" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="174"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="174"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="174"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="175"/>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="173" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="149" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
+      <c r="AB14" s="150"/>
+      <c r="AC14" s="150"/>
+      <c r="AD14" s="150"/>
+      <c r="AE14" s="151"/>
       <c r="AF14" s="126"/>
       <c r="AG14" s="121"/>
       <c r="AH14" s="121"/>
       <c r="AI14" s="121"/>
       <c r="AJ14" s="122"/>
     </row>
-    <row r="15" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="57"/>
-    </row>
-    <row r="16" spans="1:40" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="173" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="150"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="150"/>
+      <c r="AD15" s="150"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="122"/>
+    </row>
+    <row r="16" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="48">
-        <f>C12+1</f>
-        <v>6</v>
-      </c>
-      <c r="D16" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="147"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="148"/>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="173" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="178"/>
       <c r="AF16" s="126"/>
       <c r="AG16" s="121"/>
       <c r="AH16" s="121"/>
       <c r="AI16" s="121"/>
       <c r="AJ16" s="122"/>
     </row>
-    <row r="17" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="48">
-        <f t="shared" ref="C17:C29" si="1">C16+1</f>
-        <v>7</v>
-      </c>
-      <c r="D17" s="170" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="146" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="147"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="148"/>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="178"/>
       <c r="AF17" s="126"/>
       <c r="AG17" s="121"/>
       <c r="AH17" s="121"/>
@@ -6439,41 +6572,41 @@
     </row>
     <row r="18" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="48">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D18" s="170" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="146" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
-      <c r="AA18" s="147"/>
-      <c r="AB18" s="147"/>
-      <c r="AC18" s="147"/>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="148"/>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="173" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="178"/>
       <c r="AF18" s="126"/>
       <c r="AG18" s="121"/>
       <c r="AH18" s="121"/>
@@ -6482,127 +6615,122 @@
     </row>
     <row r="19" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="48">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D19" s="170" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="146" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="147"/>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="148"/>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="173" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="178"/>
       <c r="AF19" s="126"/>
       <c r="AG19" s="121"/>
       <c r="AH19" s="121"/>
       <c r="AI19" s="121"/>
       <c r="AJ19" s="122"/>
     </row>
-    <row r="20" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="48">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D20" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="146" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="126"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="122"/>
+    <row r="20" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="57"/>
     </row>
     <row r="21" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="48">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D21" s="170" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="146" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="148"/>
+        <f>C19+1</f>
+        <v>13</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="149" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="150"/>
+      <c r="AD21" s="150"/>
+      <c r="AE21" s="151"/>
       <c r="AF21" s="126"/>
       <c r="AG21" s="121"/>
       <c r="AH21" s="121"/>
@@ -6611,41 +6739,41 @@
     </row>
     <row r="22" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="48">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D22" s="170" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="147"/>
-      <c r="AE22" s="148"/>
+        <f>C21+1</f>
+        <v>14</v>
+      </c>
+      <c r="D22" s="173" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="149" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="150"/>
+      <c r="AA22" s="150"/>
+      <c r="AB22" s="150"/>
+      <c r="AC22" s="150"/>
+      <c r="AD22" s="150"/>
+      <c r="AE22" s="151"/>
       <c r="AF22" s="126"/>
       <c r="AG22" s="121"/>
       <c r="AH22" s="121"/>
@@ -6654,41 +6782,41 @@
     </row>
     <row r="23" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="48">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D23" s="170" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="148"/>
+        <f>C22+1</f>
+        <v>15</v>
+      </c>
+      <c r="D23" s="173" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="150"/>
+      <c r="AA23" s="150"/>
+      <c r="AB23" s="150"/>
+      <c r="AC23" s="150"/>
+      <c r="AD23" s="150"/>
+      <c r="AE23" s="151"/>
       <c r="AF23" s="126"/>
       <c r="AG23" s="121"/>
       <c r="AH23" s="121"/>
@@ -6697,41 +6825,41 @@
     </row>
     <row r="24" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="48">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D24" s="170" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="146" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="148"/>
+        <f t="shared" ref="C24:C34" si="1">C23+1</f>
+        <v>16</v>
+      </c>
+      <c r="D24" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="150"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="150"/>
+      <c r="AA24" s="150"/>
+      <c r="AB24" s="150"/>
+      <c r="AC24" s="150"/>
+      <c r="AD24" s="150"/>
+      <c r="AE24" s="151"/>
       <c r="AF24" s="126"/>
       <c r="AG24" s="121"/>
       <c r="AH24" s="121"/>
@@ -6741,40 +6869,40 @@
     <row r="25" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="48">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D25" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="147"/>
-      <c r="AA25" s="147"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="148"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="173" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="150"/>
+      <c r="AA25" s="150"/>
+      <c r="AB25" s="150"/>
+      <c r="AC25" s="150"/>
+      <c r="AD25" s="150"/>
+      <c r="AE25" s="151"/>
       <c r="AF25" s="126"/>
       <c r="AG25" s="121"/>
       <c r="AH25" s="121"/>
@@ -6784,40 +6912,40 @@
     <row r="26" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="48">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D26" s="170" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="147"/>
-      <c r="AA26" s="147"/>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="147"/>
-      <c r="AD26" s="147"/>
-      <c r="AE26" s="148"/>
+        <v>18</v>
+      </c>
+      <c r="D26" s="173" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="149" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="150"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="150"/>
+      <c r="AA26" s="150"/>
+      <c r="AB26" s="150"/>
+      <c r="AC26" s="150"/>
+      <c r="AD26" s="150"/>
+      <c r="AE26" s="151"/>
       <c r="AF26" s="126"/>
       <c r="AG26" s="121"/>
       <c r="AH26" s="121"/>
@@ -6827,40 +6955,40 @@
     <row r="27" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="48">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D27" s="170" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="148"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="173" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="150"/>
+      <c r="AA27" s="150"/>
+      <c r="AB27" s="150"/>
+      <c r="AC27" s="150"/>
+      <c r="AD27" s="150"/>
+      <c r="AE27" s="151"/>
       <c r="AF27" s="126"/>
       <c r="AG27" s="121"/>
       <c r="AH27" s="121"/>
@@ -6870,40 +6998,40 @@
     <row r="28" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="48">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D28" s="170" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="147"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="148"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="149" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="150"/>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="151"/>
       <c r="AF28" s="126"/>
       <c r="AG28" s="121"/>
       <c r="AH28" s="121"/>
@@ -6913,250 +7041,255 @@
     <row r="29" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="48">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D29" s="170" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="148"/>
+        <v>21</v>
+      </c>
+      <c r="D29" s="173" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="149" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="150"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="150"/>
+      <c r="Z29" s="150"/>
+      <c r="AA29" s="150"/>
+      <c r="AB29" s="150"/>
+      <c r="AC29" s="150"/>
+      <c r="AD29" s="150"/>
+      <c r="AE29" s="151"/>
       <c r="AF29" s="126"/>
       <c r="AG29" s="121"/>
       <c r="AH29" s="121"/>
       <c r="AI29" s="121"/>
       <c r="AJ29" s="122"/>
     </row>
-    <row r="30" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="57"/>
-    </row>
-    <row r="31" spans="3:36" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="64">
-        <f>C29+1</f>
-        <v>20</v>
-      </c>
-      <c r="D31" s="170" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="146" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="174"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="175"/>
+    <row r="30" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="48">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D30" s="173" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="149" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="150"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="150"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="150"/>
+      <c r="AD30" s="150"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="126"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
+      <c r="AJ30" s="122"/>
+    </row>
+    <row r="31" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="48">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D31" s="173" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="150"/>
+      <c r="AD31" s="150"/>
+      <c r="AE31" s="151"/>
       <c r="AF31" s="126"/>
       <c r="AG31" s="121"/>
       <c r="AH31" s="121"/>
       <c r="AI31" s="121"/>
       <c r="AJ31" s="122"/>
     </row>
-    <row r="32" spans="3:36" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="64">
-        <f>C31+1</f>
-        <v>21</v>
-      </c>
-      <c r="D32" s="170" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="146" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="174"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="174"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174"/>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="61"/>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="61"/>
-      <c r="AJ32" s="62"/>
-    </row>
-    <row r="33" spans="3:36" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="48">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D32" s="173" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="150"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="150"/>
+      <c r="T32" s="150"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="150"/>
+      <c r="AD32" s="150"/>
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="122"/>
+    </row>
+    <row r="33" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="48">
-        <f>C32+1</f>
-        <v>22</v>
-      </c>
-      <c r="D33" s="170" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="174"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="174"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="173" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="149" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="150"/>
+      <c r="U33" s="150"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="150"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="150"/>
+      <c r="AD33" s="150"/>
+      <c r="AE33" s="151"/>
       <c r="AF33" s="126"/>
       <c r="AG33" s="121"/>
       <c r="AH33" s="121"/>
       <c r="AI33" s="121"/>
       <c r="AJ33" s="122"/>
     </row>
-    <row r="34" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:36" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="48">
-        <f t="shared" ref="C34:C36" si="2">C33+1</f>
-        <v>23</v>
-      </c>
-      <c r="D34" s="170" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" s="174"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="174"/>
-      <c r="R34" s="174"/>
-      <c r="S34" s="174"/>
-      <c r="T34" s="174"/>
-      <c r="U34" s="174"/>
-      <c r="V34" s="174"/>
-      <c r="W34" s="174"/>
-      <c r="X34" s="174"/>
-      <c r="Y34" s="174"/>
-      <c r="Z34" s="174"/>
-      <c r="AA34" s="174"/>
-      <c r="AB34" s="174"/>
-      <c r="AC34" s="174"/>
-      <c r="AD34" s="174"/>
-      <c r="AE34" s="175"/>
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D34" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="149" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="150"/>
+      <c r="Q34" s="150"/>
+      <c r="R34" s="150"/>
+      <c r="S34" s="150"/>
+      <c r="T34" s="150"/>
+      <c r="U34" s="150"/>
+      <c r="V34" s="150"/>
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="150"/>
+      <c r="AA34" s="150"/>
+      <c r="AB34" s="150"/>
+      <c r="AC34" s="150"/>
+      <c r="AD34" s="150"/>
+      <c r="AE34" s="151"/>
       <c r="AF34" s="126"/>
       <c r="AG34" s="121"/>
       <c r="AH34" s="121"/>
@@ -7164,403 +7297,628 @@
       <c r="AJ34" s="122"/>
     </row>
     <row r="35" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="48">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D35" s="170" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="146" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="147"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="147"/>
-      <c r="Z35" s="147"/>
-      <c r="AA35" s="147"/>
-      <c r="AB35" s="147"/>
-      <c r="AC35" s="147"/>
-      <c r="AD35" s="147"/>
-      <c r="AE35" s="148"/>
-      <c r="AF35" s="126"/>
-      <c r="AG35" s="121"/>
-      <c r="AH35" s="121"/>
-      <c r="AI35" s="121"/>
-      <c r="AJ35" s="122"/>
-    </row>
-    <row r="36" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="48">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D36" s="170" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="147"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="147"/>
-      <c r="Z36" s="147"/>
-      <c r="AA36" s="147"/>
-      <c r="AB36" s="147"/>
-      <c r="AC36" s="147"/>
-      <c r="AD36" s="147"/>
-      <c r="AE36" s="148"/>
+      <c r="C35" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="57"/>
+    </row>
+    <row r="36" spans="3:36" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="64">
+        <f>C34+1</f>
+        <v>27</v>
+      </c>
+      <c r="D36" s="173" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="177"/>
+      <c r="AB36" s="177"/>
+      <c r="AC36" s="177"/>
+      <c r="AD36" s="177"/>
+      <c r="AE36" s="178"/>
       <c r="AF36" s="126"/>
       <c r="AG36" s="121"/>
       <c r="AH36" s="121"/>
       <c r="AI36" s="121"/>
       <c r="AJ36" s="122"/>
     </row>
-    <row r="37" spans="3:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="58" t="s">
+    <row r="37" spans="3:36" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="64">
+        <f>C36+1</f>
+        <v>28</v>
+      </c>
+      <c r="D37" s="173" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
+      <c r="U37" s="177"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="177"/>
+      <c r="X37" s="177"/>
+      <c r="Y37" s="177"/>
+      <c r="Z37" s="177"/>
+      <c r="AA37" s="177"/>
+      <c r="AB37" s="177"/>
+      <c r="AC37" s="177"/>
+      <c r="AD37" s="177"/>
+      <c r="AE37" s="178"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="62"/>
+    </row>
+    <row r="38" spans="3:36" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="48">
+        <f>C37+1</f>
+        <v>29</v>
+      </c>
+      <c r="D38" s="173" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
+      <c r="K38" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
+      <c r="U38" s="177"/>
+      <c r="V38" s="177"/>
+      <c r="W38" s="177"/>
+      <c r="X38" s="177"/>
+      <c r="Y38" s="177"/>
+      <c r="Z38" s="177"/>
+      <c r="AA38" s="177"/>
+      <c r="AB38" s="177"/>
+      <c r="AC38" s="177"/>
+      <c r="AD38" s="177"/>
+      <c r="AE38" s="178"/>
+      <c r="AF38" s="126"/>
+      <c r="AG38" s="121"/>
+      <c r="AH38" s="121"/>
+      <c r="AI38" s="121"/>
+      <c r="AJ38" s="122"/>
+    </row>
+    <row r="39" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="48">
+        <f t="shared" ref="C39:C41" si="2">C38+1</f>
+        <v>30</v>
+      </c>
+      <c r="D39" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="149" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="177"/>
+      <c r="T39" s="177"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="177"/>
+      <c r="W39" s="177"/>
+      <c r="X39" s="177"/>
+      <c r="Y39" s="177"/>
+      <c r="Z39" s="177"/>
+      <c r="AA39" s="177"/>
+      <c r="AB39" s="177"/>
+      <c r="AC39" s="177"/>
+      <c r="AD39" s="177"/>
+      <c r="AE39" s="178"/>
+      <c r="AF39" s="126"/>
+      <c r="AG39" s="121"/>
+      <c r="AH39" s="121"/>
+      <c r="AI39" s="121"/>
+      <c r="AJ39" s="122"/>
+    </row>
+    <row r="40" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="48">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D40" s="173" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="150"/>
+      <c r="P40" s="150"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="150"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="150"/>
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150"/>
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="150"/>
+      <c r="AC40" s="150"/>
+      <c r="AD40" s="150"/>
+      <c r="AE40" s="151"/>
+      <c r="AF40" s="126"/>
+      <c r="AG40" s="121"/>
+      <c r="AH40" s="121"/>
+      <c r="AI40" s="121"/>
+      <c r="AJ40" s="122"/>
+    </row>
+    <row r="41" spans="3:36" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="48">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D41" s="173" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="149" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
+      <c r="N41" s="150"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="150"/>
+      <c r="Q41" s="150"/>
+      <c r="R41" s="150"/>
+      <c r="S41" s="150"/>
+      <c r="T41" s="150"/>
+      <c r="U41" s="150"/>
+      <c r="V41" s="150"/>
+      <c r="W41" s="150"/>
+      <c r="X41" s="150"/>
+      <c r="Y41" s="150"/>
+      <c r="Z41" s="150"/>
+      <c r="AA41" s="150"/>
+      <c r="AB41" s="150"/>
+      <c r="AC41" s="150"/>
+      <c r="AD41" s="150"/>
+      <c r="AE41" s="151"/>
+      <c r="AF41" s="126"/>
+      <c r="AG41" s="121"/>
+      <c r="AH41" s="121"/>
+      <c r="AI41" s="121"/>
+      <c r="AJ41" s="122"/>
+    </row>
+    <row r="42" spans="3:36" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="68"/>
-      <c r="AJ37" s="69"/>
-    </row>
-    <row r="38" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="64">
-        <f>C36+1</f>
-        <v>26</v>
-      </c>
-      <c r="D38" s="170" t="s">
+      <c r="D42" s="52"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="69"/>
+    </row>
+    <row r="43" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="64">
+        <f>C41+1</f>
+        <v>33</v>
+      </c>
+      <c r="D43" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="146" t="s">
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="L38" s="174"/>
-      <c r="M38" s="174"/>
-      <c r="N38" s="174"/>
-      <c r="O38" s="174"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
-      <c r="S38" s="174"/>
-      <c r="T38" s="174"/>
-      <c r="U38" s="174"/>
-      <c r="V38" s="174"/>
-      <c r="W38" s="174"/>
-      <c r="X38" s="174"/>
-      <c r="Y38" s="174"/>
-      <c r="Z38" s="174"/>
-      <c r="AA38" s="174"/>
-      <c r="AB38" s="174"/>
-      <c r="AC38" s="174"/>
-      <c r="AD38" s="174"/>
-      <c r="AE38" s="175"/>
-      <c r="AF38" s="120"/>
-      <c r="AG38" s="178"/>
-      <c r="AH38" s="178"/>
-      <c r="AI38" s="178"/>
-      <c r="AJ38" s="179"/>
-    </row>
-    <row r="39" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="64">
-        <f>C38+1</f>
-        <v>27</v>
-      </c>
-      <c r="D39" s="170" t="s">
+      <c r="L43" s="177"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="177"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="177"/>
+      <c r="S43" s="177"/>
+      <c r="T43" s="177"/>
+      <c r="U43" s="177"/>
+      <c r="V43" s="177"/>
+      <c r="W43" s="177"/>
+      <c r="X43" s="177"/>
+      <c r="Y43" s="177"/>
+      <c r="Z43" s="177"/>
+      <c r="AA43" s="177"/>
+      <c r="AB43" s="177"/>
+      <c r="AC43" s="177"/>
+      <c r="AD43" s="177"/>
+      <c r="AE43" s="178"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="181"/>
+      <c r="AH43" s="181"/>
+      <c r="AI43" s="181"/>
+      <c r="AJ43" s="182"/>
+    </row>
+    <row r="44" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="64">
+        <f>C43+1</f>
+        <v>34</v>
+      </c>
+      <c r="D44" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="146" t="s">
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="174"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="174"/>
-      <c r="V39" s="174"/>
-      <c r="W39" s="174"/>
-      <c r="X39" s="174"/>
-      <c r="Y39" s="174"/>
-      <c r="Z39" s="174"/>
-      <c r="AA39" s="174"/>
-      <c r="AB39" s="174"/>
-      <c r="AC39" s="174"/>
-      <c r="AD39" s="174"/>
-      <c r="AE39" s="175"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="71"/>
-      <c r="AI39" s="71"/>
-      <c r="AJ39" s="72"/>
-    </row>
-    <row r="40" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="64">
-        <f>C39+1</f>
-        <v>28</v>
-      </c>
-      <c r="D40" s="170" t="s">
+      <c r="L44" s="177"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="177"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="177"/>
+      <c r="U44" s="177"/>
+      <c r="V44" s="177"/>
+      <c r="W44" s="177"/>
+      <c r="X44" s="177"/>
+      <c r="Y44" s="177"/>
+      <c r="Z44" s="177"/>
+      <c r="AA44" s="177"/>
+      <c r="AB44" s="177"/>
+      <c r="AC44" s="177"/>
+      <c r="AD44" s="177"/>
+      <c r="AE44" s="178"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="71"/>
+      <c r="AJ44" s="72"/>
+    </row>
+    <row r="45" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="64">
+        <f>C44+1</f>
+        <v>35</v>
+      </c>
+      <c r="D45" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="146" t="s">
+      <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="L40" s="174"/>
-      <c r="M40" s="174"/>
-      <c r="N40" s="174"/>
-      <c r="O40" s="174"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
-      <c r="S40" s="174"/>
-      <c r="T40" s="174"/>
-      <c r="U40" s="174"/>
-      <c r="V40" s="174"/>
-      <c r="W40" s="174"/>
-      <c r="X40" s="174"/>
-      <c r="Y40" s="174"/>
-      <c r="Z40" s="174"/>
-      <c r="AA40" s="174"/>
-      <c r="AB40" s="174"/>
-      <c r="AC40" s="174"/>
-      <c r="AD40" s="174"/>
-      <c r="AE40" s="175"/>
-      <c r="AF40" s="120"/>
-      <c r="AG40" s="178"/>
-      <c r="AH40" s="178"/>
-      <c r="AI40" s="178"/>
-      <c r="AJ40" s="179"/>
-    </row>
-    <row r="41" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="64">
-        <f t="shared" ref="C41" si="3">C40+1</f>
-        <v>29</v>
-      </c>
-      <c r="D41" s="170" t="s">
+      <c r="L45" s="177"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="177"/>
+      <c r="O45" s="177"/>
+      <c r="P45" s="177"/>
+      <c r="Q45" s="177"/>
+      <c r="R45" s="177"/>
+      <c r="S45" s="177"/>
+      <c r="T45" s="177"/>
+      <c r="U45" s="177"/>
+      <c r="V45" s="177"/>
+      <c r="W45" s="177"/>
+      <c r="X45" s="177"/>
+      <c r="Y45" s="177"/>
+      <c r="Z45" s="177"/>
+      <c r="AA45" s="177"/>
+      <c r="AB45" s="177"/>
+      <c r="AC45" s="177"/>
+      <c r="AD45" s="177"/>
+      <c r="AE45" s="178"/>
+      <c r="AF45" s="120"/>
+      <c r="AG45" s="181"/>
+      <c r="AH45" s="181"/>
+      <c r="AI45" s="181"/>
+      <c r="AJ45" s="182"/>
+    </row>
+    <row r="46" spans="3:36" s="70" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="64">
+        <f t="shared" ref="C46" si="3">C45+1</f>
+        <v>36</v>
+      </c>
+      <c r="D46" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="146" t="s">
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
-      <c r="AB41" s="174"/>
-      <c r="AC41" s="174"/>
-      <c r="AD41" s="174"/>
-      <c r="AE41" s="175"/>
-      <c r="AF41" s="120"/>
-      <c r="AG41" s="178"/>
-      <c r="AH41" s="178"/>
-      <c r="AI41" s="178"/>
-      <c r="AJ41" s="179"/>
-    </row>
-    <row r="42" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L46" s="177"/>
+      <c r="M46" s="177"/>
+      <c r="N46" s="177"/>
+      <c r="O46" s="177"/>
+      <c r="P46" s="177"/>
+      <c r="Q46" s="177"/>
+      <c r="R46" s="177"/>
+      <c r="S46" s="177"/>
+      <c r="T46" s="177"/>
+      <c r="U46" s="177"/>
+      <c r="V46" s="177"/>
+      <c r="W46" s="177"/>
+      <c r="X46" s="177"/>
+      <c r="Y46" s="177"/>
+      <c r="Z46" s="177"/>
+      <c r="AA46" s="177"/>
+      <c r="AB46" s="177"/>
+      <c r="AC46" s="177"/>
+      <c r="AD46" s="177"/>
+      <c r="AE46" s="178"/>
+      <c r="AF46" s="120"/>
+      <c r="AG46" s="181"/>
+      <c r="AH46" s="181"/>
+      <c r="AI46" s="181"/>
+      <c r="AJ46" s="182"/>
+    </row>
     <row r="47" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="3:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="126">
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:AE15"/>
+    <mergeCell ref="AF15:AJ15"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="K13:AE13"/>
     <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:AE12"/>
+    <mergeCell ref="AF12:AJ12"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="K14:AE14"/>
     <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AE18"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:AE19"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K45:AE45"/>
+    <mergeCell ref="AF45:AJ45"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AE34"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AE36"/>
+    <mergeCell ref="AF36:AJ36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AE32"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AE33"/>
+    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:AE30"/>
+    <mergeCell ref="AF30:AJ30"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="K46:AE46"/>
+    <mergeCell ref="AF46:AJ46"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="K43:AE43"/>
+    <mergeCell ref="AF43:AJ43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="K44:AE44"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="K37:AE37"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:AE38"/>
+    <mergeCell ref="AF38:AJ38"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AE41"/>
+    <mergeCell ref="AF41:AJ41"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:AE39"/>
+    <mergeCell ref="AF39:AJ39"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="K40:AE40"/>
     <mergeCell ref="AF40:AJ40"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AE31"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:AE28"/>
+    <mergeCell ref="AF28:AJ28"/>
     <mergeCell ref="D29:J29"/>
     <mergeCell ref="K29:AE29"/>
     <mergeCell ref="AF29:AJ29"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AE31"/>
-    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AE26"/>
+    <mergeCell ref="AF26:AJ26"/>
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="K27:AE27"/>
     <mergeCell ref="AF27:AJ27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:AE28"/>
-    <mergeCell ref="AF28:AJ28"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
     <mergeCell ref="D25:J25"/>
     <mergeCell ref="K25:AE25"/>
     <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AE41"/>
-    <mergeCell ref="AF41:AJ41"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:AE38"/>
-    <mergeCell ref="AF38:AJ38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:AE39"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AE32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AE33"/>
-    <mergeCell ref="AF33:AJ33"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AE36"/>
-    <mergeCell ref="AF36:AJ36"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AE34"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AE35"/>
-    <mergeCell ref="AF35:AJ35"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AE26"/>
-    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
     <mergeCell ref="D23:J23"/>
     <mergeCell ref="K23:AE23"/>
     <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AE24"/>
-    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="AF9:AJ9"/>
     <mergeCell ref="D21:J21"/>
     <mergeCell ref="K21:AE21"/>
     <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:AE19"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AE20"/>
-    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="K16:AE16"/>
+    <mergeCell ref="K9:AE9"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="K17:AE17"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AE18"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:AE11"/>
     <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="AF9:AJ9"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:AE16"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="K9:AE9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:AE12"/>
+    <mergeCell ref="D7:J7"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="K10:AE10"/>
     <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="D7:J7"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
